--- a/Waste_Estimates.xlsx
+++ b/Waste_Estimates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmendoza\Google Drive\School\Classes_Current\NUEN 689 - Research\Summer 2014\Results_Cal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\Research\PhD\Experiment\LabWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t xml:space="preserve">Entry </t>
   </si>
@@ -166,13 +166,19 @@
   </si>
   <si>
     <t>Dates</t>
+  </si>
+  <si>
+    <t>Reported</t>
+  </si>
+  <si>
+    <t>Starting Inventory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +193,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -214,10 +232,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -241,8 +260,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
@@ -2214,19 +2239,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -2242,8 +2269,35 @@
       <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>41827</v>
       </c>
@@ -2263,8 +2317,35 @@
         <f>Dates!AL2</f>
         <v>0.66266999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="14"/>
+      <c r="H2" s="15">
+        <v>41828</v>
+      </c>
+      <c r="I2" s="14">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <f>I2+J2</f>
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="L2" s="14">
+        <f>P2-K2</f>
+        <v>0.66266199999999997</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14">
+        <v>0.66266999999999998</v>
+      </c>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>41828</v>
       </c>
@@ -2284,8 +2365,33 @@
         <f>Dates!AL3</f>
         <v>0.66266199999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15">
+        <v>41835</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1.6251864306523515E-4</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <f t="shared" ref="K3:K13" si="0">I3+J3</f>
+        <v>1.6251864306523515E-4</v>
+      </c>
+      <c r="L3" s="14">
+        <f>L2-K3</f>
+        <v>0.66249948135693471</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41835</v>
       </c>
@@ -2305,8 +2411,33 @@
         <f>Dates!AL4</f>
         <v>0.66249948135693471</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="14"/>
+      <c r="H4" s="15">
+        <v>41841</v>
+      </c>
+      <c r="I4" s="14">
+        <v>4.2811588861304699E-4</v>
+      </c>
+      <c r="J4" s="14">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" si="0"/>
+        <v>4.7811588861304701E-4</v>
+      </c>
+      <c r="L4" s="14">
+        <f t="shared" ref="L4:L13" si="1">L3-K4</f>
+        <v>0.66202136546832169</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>41841</v>
       </c>
@@ -2326,11 +2457,44 @@
         <f>Dates!AL5</f>
         <v>0.66207136546832168</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>41848</v>
+      </c>
+      <c r="I6" s="14">
+        <v>7.9999999999999993E-5</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <f>I6+J6</f>
+        <v>7.9999999999999993E-5</v>
+      </c>
+      <c r="L6" s="14">
+        <f>L4-K6</f>
+        <v>0.66194136546832172</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41841</v>
       </c>
@@ -2350,8 +2514,33 @@
         <f>Dates!AL6</f>
         <v>0.66202136546832169</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>41879</v>
+      </c>
+      <c r="I7" s="14">
+        <v>9.5999999999999992E-4</v>
+      </c>
+      <c r="J7" s="14">
+        <v>3.3033599999999998E-4</v>
+      </c>
+      <c r="K7" s="14">
+        <f>I7+J7</f>
+        <v>1.290336E-3</v>
+      </c>
+      <c r="L7" s="14">
+        <f>L6-K7</f>
+        <v>0.66065102946832177</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>41848</v>
       </c>
@@ -2371,8 +2560,33 @@
         <f>Dates!AL7</f>
         <v>0.66194136546832172</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="14"/>
+      <c r="H8" s="15">
+        <v>41880</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>8.4126474374399986E-4</v>
+      </c>
+      <c r="K8" s="14">
+        <f>I8+J8</f>
+        <v>8.4126474374399986E-4</v>
+      </c>
+      <c r="L8" s="14">
+        <f>L7-K8</f>
+        <v>0.65980976472457775</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>41879</v>
       </c>
@@ -2392,8 +2606,33 @@
         <f>Dates!AL8</f>
         <v>0.66065102946832177</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <v>41918</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>3.0207599999999997E-4</v>
+      </c>
+      <c r="K9" s="14">
+        <f>I9+J9</f>
+        <v>3.0207599999999997E-4</v>
+      </c>
+      <c r="L9" s="14">
+        <f>L8-K9</f>
+        <v>0.65950768872457777</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41880</v>
       </c>
@@ -2413,8 +2652,33 @@
         <f>Dates!AL9</f>
         <v>0.65980976472457775</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <v>41955</v>
+      </c>
+      <c r="I10" s="14">
+        <v>4.7999999999999996E-4</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1.3740277268159999E-3</v>
+      </c>
+      <c r="K10" s="14">
+        <f>I10+J10</f>
+        <v>1.8540277268159998E-3</v>
+      </c>
+      <c r="L10" s="14">
+        <f>L9-K10</f>
+        <v>0.65765366099776179</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41918</v>
       </c>
@@ -2434,8 +2698,33 @@
         <f>Dates!AL10</f>
         <v>0.65950768872457777</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <v>41957</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1.1999999999999999E-4</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1.4372727614005448E-5</v>
+      </c>
+      <c r="K11" s="14">
+        <f>I11+J11</f>
+        <v>1.3437272761400543E-4</v>
+      </c>
+      <c r="L11" s="14">
+        <f>L10-K11</f>
+        <v>0.65751928827014783</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>Dates!B11</f>
         <v>41955</v>
@@ -2456,8 +2745,33 @@
         <f>Dates!AL11</f>
         <v>0.65765366099776179</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <v>41967</v>
+      </c>
+      <c r="I12" s="14">
+        <v>3.9999999999999996E-5</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1.4684249999999996E-5</v>
+      </c>
+      <c r="K12" s="14">
+        <f>I12+J12</f>
+        <v>5.4684249999999991E-5</v>
+      </c>
+      <c r="L12" s="14">
+        <f>L11-K12</f>
+        <v>0.65746460402014784</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>Dates!B12</f>
         <v>41957</v>
@@ -2478,8 +2792,33 @@
         <f>Dates!AL12</f>
         <v>0.65751928827014783</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="14"/>
+      <c r="H13" s="15">
+        <v>41968</v>
+      </c>
+      <c r="I13" s="14">
+        <v>3.3333333333333329E-6</v>
+      </c>
+      <c r="J13" s="14">
+        <v>1.4372727614005448E-5</v>
+      </c>
+      <c r="K13" s="14">
+        <f>I13+J13</f>
+        <v>1.7706060947338782E-5</v>
+      </c>
+      <c r="L13" s="14">
+        <f>L12-K13</f>
+        <v>0.65744689795920053</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>Dates!B13</f>
         <v>41967</v>
@@ -2500,8 +2839,33 @@
         <f>Dates!AL13</f>
         <v>0.65746460402014784</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <v>41969</v>
+      </c>
+      <c r="I14" s="14">
+        <v>3.9999999999999996E-5</v>
+      </c>
+      <c r="J14" s="14">
+        <v>1.4684249999999996E-5</v>
+      </c>
+      <c r="K14" s="14">
+        <f>I14+J14</f>
+        <v>5.4684249999999991E-5</v>
+      </c>
+      <c r="L14" s="14">
+        <f>L13-K14</f>
+        <v>0.65739221370920053</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>Dates!B14</f>
         <v>41968</v>
@@ -2522,8 +2886,21 @@
         <f>Dates!AL14</f>
         <v>0.65744689795920053</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>Dates!B15</f>
         <v>41969</v>
@@ -2544,11 +2921,44 @@
         <f>Dates!AL15</f>
         <v>0.65739221370920053</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="14"/>
+      <c r="H16" s="1">
+        <v>42668</v>
+      </c>
+      <c r="I16" s="14">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14">
+        <f>I16+J16</f>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="L16" s="14">
+        <f>L14-K16</f>
+        <v>0.60489221370920054</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18">
         <f>SUM(B2:B16)</f>
@@ -2562,6 +2972,29 @@
         <f>SUM(D2:D16)</f>
         <v>1.2877786290799624E-2</v>
       </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14">
+        <f>SUM(I2:I14)</f>
+        <v>2.3219678650116156E-3</v>
+      </c>
+      <c r="J19" s="14">
+        <f>SUM(J2:J14)</f>
+        <v>2.9558184257880106E-3</v>
+      </c>
+      <c r="K19" s="14">
+        <f>SUM(K2:K14)</f>
+        <v>5.2777862907996262E-3</v>
+      </c>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
